--- a/Docs/Список кабельных вводов.xlsx
+++ b/Docs/Список кабельных вводов.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Velvet\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F81A2D-2E54-4BD8-8EE1-190E9A66DEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2559C066-FDA1-423B-A5DE-B25C55094C08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
   <si>
     <t>Блок схемы</t>
   </si>
@@ -139,12 +133,249 @@
   </si>
   <si>
     <t>6.4мм</t>
+  </si>
+  <si>
+    <t>DI0</t>
+  </si>
+  <si>
+    <t>DI1</t>
+  </si>
+  <si>
+    <t>DI2</t>
+  </si>
+  <si>
+    <t>DI_COM</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Дискретный вход 1</t>
+  </si>
+  <si>
+    <t>Дискретный вход 0</t>
+  </si>
+  <si>
+    <t>Дискретный вход 2</t>
+  </si>
+  <si>
+    <t>общий провод дис. Входов</t>
+  </si>
+  <si>
+    <t>Разъём на плате</t>
+  </si>
+  <si>
+    <t>X1io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">макс апряжение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">макс ток </t>
+  </si>
+  <si>
+    <t>5мА</t>
+  </si>
+  <si>
+    <t>40В</t>
+  </si>
+  <si>
+    <t>Цепь</t>
+  </si>
+  <si>
+    <t>-PWR</t>
+  </si>
+  <si>
+    <t>+PWR</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>4А</t>
+  </si>
+  <si>
+    <t>вх. Питание</t>
+  </si>
+  <si>
+    <t>вх. питание</t>
+  </si>
+  <si>
+    <t>заземление</t>
+  </si>
+  <si>
+    <t>X2io</t>
+  </si>
+  <si>
+    <t>DO0_PWR</t>
+  </si>
+  <si>
+    <t>DO0</t>
+  </si>
+  <si>
+    <t>DO_COM0</t>
+  </si>
+  <si>
+    <t>DO1_PWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO1 </t>
+  </si>
+  <si>
+    <t>DO_COM1</t>
+  </si>
+  <si>
+    <t>DO2_PWR</t>
+  </si>
+  <si>
+    <t>10А</t>
+  </si>
+  <si>
+    <t>Дискретный выход 0</t>
+  </si>
+  <si>
+    <t>Плюс питания нагрузки 1</t>
+  </si>
+  <si>
+    <t>Минус питания нагрузки 0</t>
+  </si>
+  <si>
+    <t>Плюс питания нагрузки 0</t>
+  </si>
+  <si>
+    <t>Дискретный выход 1</t>
+  </si>
+  <si>
+    <t>Минус питания нагрузки 1</t>
+  </si>
+  <si>
+    <t>Плюс питания нагрузки 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO2 </t>
+  </si>
+  <si>
+    <t>DO_COM2</t>
+  </si>
+  <si>
+    <t>DO3_PWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO3 </t>
+  </si>
+  <si>
+    <t>DO_COM3</t>
+  </si>
+  <si>
+    <t>X3io</t>
+  </si>
+  <si>
+    <t>DO4</t>
+  </si>
+  <si>
+    <t>DO5</t>
+  </si>
+  <si>
+    <t>DO_COM4</t>
+  </si>
+  <si>
+    <t>Дискретный выход 2</t>
+  </si>
+  <si>
+    <t>Минус питания нагрузки 2</t>
+  </si>
+  <si>
+    <t>Плюс питания нагрузки 3</t>
+  </si>
+  <si>
+    <t>Дискретный выход 4</t>
+  </si>
+  <si>
+    <t>Дискретный выход 3</t>
+  </si>
+  <si>
+    <t>Минус питания нагрузки 3</t>
+  </si>
+  <si>
+    <t>Дискретный выход 5</t>
+  </si>
+  <si>
+    <t>Общий вывод дис. Вых. 4 и 5</t>
+  </si>
+  <si>
+    <t>220В</t>
+  </si>
+  <si>
+    <t>2А</t>
+  </si>
+  <si>
+    <t>LVDS_ADC_CS+</t>
+  </si>
+  <si>
+    <t>LVDS_ADC_CS-</t>
+  </si>
+  <si>
+    <t>LVDS_ADC_SCK+</t>
+  </si>
+  <si>
+    <t>LVDS_ADC_SCK-</t>
+  </si>
+  <si>
+    <t>LVDS_ADC_MOSI+</t>
+  </si>
+  <si>
+    <t>LVDS_ADC_MOSI-</t>
+  </si>
+  <si>
+    <t>3,3В</t>
+  </si>
+  <si>
+    <t>3мА</t>
+  </si>
+  <si>
+    <t>LVDS_ADC_MISO-</t>
+  </si>
+  <si>
+    <t>+12V</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>TS_SDA</t>
+  </si>
+  <si>
+    <t>TS_SCL</t>
+  </si>
+  <si>
+    <t>TS2_ALERT</t>
+  </si>
+  <si>
+    <t>+3.3V</t>
+  </si>
+  <si>
+    <t>X2mc</t>
+  </si>
+  <si>
+    <t>X3mc</t>
+  </si>
+  <si>
+    <t>10мА</t>
+  </si>
+  <si>
+    <t>X5mc</t>
+  </si>
+  <si>
+    <t>Датчик температуры. Мне не известна длина, на которую от контроллера будет удалён датчик температуры</t>
+  </si>
+  <si>
+    <t>Жгут необходимо экранировать. Экран подключить к цепи PE со стороны платы Velvet Controller. Предусмотреть, что от АЦП на корпус (или куда там) к цепи PE должен идти отдельный заземляющий проводник, не связанный с Контроллером</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -397,11 +628,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -418,14 +818,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -437,6 +831,94 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -743,30 +1225,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DB3818-D062-4C4E-9AC2-1313E0B42618}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -783,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -800,7 +1283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -817,135 +1300,135 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>1</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>2</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -962,7 +1445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -979,10 +1462,462 @@
         <v>35</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="50"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="50"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="50"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="50"/>
+    </row>
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="51"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="50"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="50"/>
+    </row>
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="50"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="50"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="50"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="50"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="50"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="50"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="50"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="50"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="50"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="50"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="51"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="50"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="50"/>
+    </row>
+    <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C54" s="71"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="20">
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="D39:D49"/>
+    <mergeCell ref="C39:C49"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="E39:E49"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C17:C35"/>
+    <mergeCell ref="D24:D35"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Список кабельных вводов.xlsx
+++ b/Docs/Список кабельных вводов.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Velvet\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A9212-D350-470C-AABB-5E69ED2B8E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="119">
   <si>
     <t>Блок схемы</t>
   </si>
@@ -370,12 +370,24 @@
   </si>
   <si>
     <t>Жгут необходимо экранировать. Экран подключить к цепи PE со стороны платы Velvet Controller. Предусмотреть, что от АЦП на корпус (или куда там) к цепи PE должен идти отдельный заземляющий проводник, не связанный с Контроллером</t>
+  </si>
+  <si>
+    <t>Макс. Ток</t>
+  </si>
+  <si>
+    <t>Ввод№9</t>
+  </si>
+  <si>
+    <t>общий провод дискр. Вх.</t>
+  </si>
+  <si>
+    <t>Макс. Напряжение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -797,11 +809,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -831,57 +910,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -889,19 +930,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -913,12 +978,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1225,31 +1319,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1265,8 +1360,14 @@
       <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1282,8 +1383,10 @@
       <c r="E2" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -1299,9 +1402,11 @@
       <c r="E3" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -1316,9 +1421,11 @@
       <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1331,9 +1438,11 @@
       <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1346,9 +1455,11 @@
       <c r="E6" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -1363,9 +1474,15 @@
       <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="F7" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="68"/>
       <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
@@ -1378,9 +1495,15 @@
       <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="F8" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="68"/>
       <c r="B9" s="18" t="s">
         <v>17</v>
       </c>
@@ -1393,531 +1516,570 @@
       <c r="E9" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="F9" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E11" s="23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="25">
-        <v>2</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="B12" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="25">
+        <v>3</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E12" s="26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="F12" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="44" t="s">
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D17" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F17" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C18" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D18" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F18" s="51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="32" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="33" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="50"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="33" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="50"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="35" t="s">
+      <c r="F20" s="52"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="36" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="50"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="53" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E22" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="50"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="47" t="s">
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="45" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="50"/>
-    </row>
-    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="48" t="s">
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="36" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="51"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="56" t="s">
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="49" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E25" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F25" s="51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="52" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="34" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="50"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="52" t="s">
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="34" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="50"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="52" t="s">
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="31" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="50"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="52" t="s">
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="34" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="52" t="s">
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="34" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="50"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="48" t="s">
+      <c r="F30" s="52"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="44" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="51"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="60" t="s">
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="31" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F32" s="51" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="61" t="s">
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="34" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="50"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="61" t="s">
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="57" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="50"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="61" t="s">
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="58" t="s">
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="50"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="61" t="s">
+      <c r="F35" s="52"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="59" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="61" t="s">
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C37" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D37" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E37" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="61" t="s">
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="34" t="s">
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="50"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="62" t="s">
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="37" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="50"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="57" t="s">
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C40" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D40" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="68" t="s">
+      <c r="E40" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F40" s="51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="58" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="50"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="58" t="s">
+      <c r="C41" s="52"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="52"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="50"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="58" t="s">
+      <c r="C42" s="52"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="52"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="50"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="58" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="50"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="58" t="s">
+      <c r="C44" s="52"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="50"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="58" t="s">
+      <c r="C45" s="52"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="50" t="s">
+      <c r="C46" s="52"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="58" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="50"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="58" t="s">
+      <c r="C47" s="52"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="52"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="50"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="58" t="s">
+      <c r="C48" s="52"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="50"/>
-    </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="59" t="s">
+      <c r="C49" s="52"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="51"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="57" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="53"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C51" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D51" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="E51" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F51" s="51" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="58" t="s">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="50"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="58" t="s">
+      <c r="C52" s="52"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="52"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="50"/>
-    </row>
-    <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="59" t="s">
+      <c r="C53" s="52"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="51"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="71"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="53"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="D39:D49"/>
-    <mergeCell ref="C39:C49"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="E39:E49"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C17:C35"/>
-    <mergeCell ref="D24:D35"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F18:F24"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="F32:F39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C18:C36"/>
+    <mergeCell ref="D25:D36"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="D40:D50"/>
+    <mergeCell ref="C40:C50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="E40:E50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Список кабельных вводов.xlsx
+++ b/Docs/Список кабельных вводов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Velvet\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A9212-D350-470C-AABB-5E69ED2B8E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8ABCF1-7ED9-446C-AD40-F4AD6DF8E7BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
   <si>
     <t>Блок схемы</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Отверстие№4</t>
   </si>
   <si>
-    <t>6в1</t>
-  </si>
-  <si>
     <t>БП</t>
   </si>
   <si>
@@ -382,6 +379,45 @@
   </si>
   <si>
     <t>Макс. Напряжение</t>
+  </si>
+  <si>
+    <t>3 или 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10А </t>
+  </si>
+  <si>
+    <t>Ввод№10</t>
+  </si>
+  <si>
+    <t>нагр 3</t>
+  </si>
+  <si>
+    <t>нагр 4</t>
+  </si>
+  <si>
+    <t>нагр. 220В через реле</t>
+  </si>
+  <si>
+    <t>3.3В</t>
+  </si>
+  <si>
+    <t>8в1(с экраном)  и 3в1</t>
+  </si>
+  <si>
+    <t>Датчик темп.</t>
+  </si>
+  <si>
+    <t>Ввод№11</t>
+  </si>
+  <si>
+    <t>Ввод№12</t>
+  </si>
+  <si>
+    <t>Ввод№13</t>
+  </si>
+  <si>
+    <t>4в1</t>
   </si>
 </sst>
 </file>
@@ -414,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +493,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -880,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -933,72 +981,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1013,6 +995,84 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1327,17 +1387,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -1360,11 +1420,11 @@
       <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>118</v>
+      <c r="F1" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1381,10 +1441,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+        <v>34</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1400,20 +1460,20 @@
         <v>4</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+        <v>34</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16">
-        <v>2</v>
+      <c r="C4" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>9</v>
@@ -1421,16 +1481,20 @@
       <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16">
-        <v>2</v>
+      <c r="C5" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>12</v>
@@ -1438,648 +1502,732 @@
       <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="F5" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
+      <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="84">
         <v>1</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="73" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="91" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="25">
+        <v>3</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="25">
-        <v>3</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="75" t="s">
+      <c r="C21" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="64"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="64"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="64"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="52"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="82" t="s">
+      <c r="F26" s="64"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="27" t="s">
+      <c r="C27" s="64"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="83" t="s">
+      <c r="F27" s="64"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="37" t="s">
+      <c r="C28" s="64"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="31" t="s">
+      <c r="F28" s="65"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="53"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="51" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="F30" s="64"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="64"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="64"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="F33" s="64"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="30" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="39" t="s">
+      <c r="F34" s="64"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="30" t="s">
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="52"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="36" t="s">
+      <c r="F35" s="65"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="53"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="44" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="28" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="52"/>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="52"/>
+      <c r="F37" s="64"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="64"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="64"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="64"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="64"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="64"/>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="30" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="51" t="s">
+      <c r="F43" s="64"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="52"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="52"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="52"/>
+      <c r="E44" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="63" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="52"/>
+        <v>94</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="64"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="52" t="s">
-        <v>110</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="52"/>
+        <v>96</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="64"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="52"/>
+        <v>97</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="64"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="52"/>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="53"/>
+        <v>98</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="64"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="64" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="51" t="s">
-        <v>112</v>
-      </c>
+      <c r="B51" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="64"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="52"/>
+        <v>102</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="64"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="52"/>
+        <v>103</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="64"/>
     </row>
     <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="53"/>
+        <v>53</v>
+      </c>
+      <c r="C54" s="65"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="65"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="47"/>
+      <c r="B55" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="64"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="64"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="64"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="64"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="65"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="65"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="F18:F24"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="F32:F39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C18:C36"/>
-    <mergeCell ref="D25:D36"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="D40:D50"/>
-    <mergeCell ref="C40:C50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="E40:E50"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="D44:D54"/>
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="F50:F54"/>
+    <mergeCell ref="E44:E54"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C22:C40"/>
+    <mergeCell ref="D29:D40"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Список кабельных вводов.xlsx
+++ b/Docs/Список кабельных вводов.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Velvet\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KazATU\Velvet\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8ABCF1-7ED9-446C-AD40-F4AD6DF8E7BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15996"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
   <si>
     <t>Блок схемы</t>
   </si>
@@ -418,12 +417,21 @@
   </si>
   <si>
     <t>4в1</t>
+  </si>
+  <si>
+    <t>Тип провода</t>
+  </si>
+  <si>
+    <t>ШВВП 3х0,75 Кабель и UTP кабель</t>
+  </si>
+  <si>
+    <t>~9мм (UTP) и 3,3*7,5мм(ШВВП)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -995,72 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1073,6 +1015,72 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1386,25 +1394,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1426,8 +1435,11 @@
       <c r="G1" s="56" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1445,8 +1457,9 @@
       </c>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -1464,9 +1477,10 @@
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="87" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -1487,9 +1501,10 @@
       <c r="G4" s="50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="H4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="87"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1508,9 +1523,10 @@
       <c r="G5" s="50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="H5" s="50"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="87"/>
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1527,9 +1543,10 @@
       <c r="G6" s="50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="87"/>
       <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1546,9 +1563,10 @@
       <c r="G7" s="50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="87"/>
       <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1565,9 +1583,10 @@
       <c r="G8" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="87"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
@@ -1582,15 +1601,16 @@
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="91" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="62">
         <v>1</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -1605,9 +1625,10 @@
       <c r="G10" s="51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="92"/>
       <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
@@ -1626,9 +1647,10 @@
       <c r="G11" s="51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="92"/>
       <c r="B12" s="18" t="s">
         <v>115</v>
       </c>
@@ -1647,9 +1669,10 @@
       <c r="G12" s="51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="93"/>
       <c r="B13" s="18" t="s">
         <v>120</v>
       </c>
@@ -1668,12 +1691,13 @@
       <c r="G13" s="51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="71" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -1683,7 +1707,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>100</v>
@@ -1691,27 +1715,31 @@
       <c r="G14" s="52" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
+      <c r="H14" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91" t="s">
+      <c r="D15" s="66"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="69" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="69"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>31</v>
       </c>
@@ -1733,8 +1761,9 @@
       <c r="G16" s="53" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="53"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1752,8 +1781,9 @@
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="54"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1771,9 +1801,10 @@
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="55"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="36" t="s">
         <v>50</v>
       </c>
@@ -1790,424 +1821,435 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="75" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="75" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="64"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="76"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="64"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="76"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="64"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="76"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="76"/>
+      <c r="D26" s="88" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="64"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="76"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="64"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="76"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="68"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="65"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="77"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="63" t="s">
+      <c r="C29" s="76"/>
+      <c r="D29" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="75" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="86" t="s">
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="64"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="76"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="86" t="s">
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="64"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="76"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="85" t="s">
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="64"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="76"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="86" t="s">
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="64"/>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="76"/>
+    </row>
+    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="86" t="s">
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="64"/>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="76"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="65"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="77"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="75" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="64"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="76"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="64"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="76"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="64"/>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="76"/>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="64"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="76"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="76" t="s">
         <v>92</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="64"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="76"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
       <c r="E42" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="64"/>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="76"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="64"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="76"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="F44" s="75" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="64"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="76"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="76"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="64"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="76"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="76"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="64"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="76"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="76"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="64"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="76"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="76"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="64"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="76"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="76"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="64" t="s">
+      <c r="C50" s="76"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="76" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="64"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="76"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="76"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="64"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="76"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="76"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="64"/>
-    </row>
-    <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="76"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="76"/>
+    </row>
+    <row r="54" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="65"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="77"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="77"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="78" t="s">
+      <c r="D55" s="81" t="s">
         <v>110</v>
       </c>
       <c r="E55" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="63" t="s">
+      <c r="F55" s="75" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="79"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="82"/>
       <c r="E56" s="73"/>
-      <c r="F56" s="64"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="76"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="79"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="82"/>
       <c r="E57" s="73"/>
-      <c r="F57" s="64"/>
-    </row>
-    <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="76"/>
+    </row>
+    <row r="58" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="80"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="74"/>
-      <c r="F58" s="65"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="77"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C59" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C22:C40"/>
+    <mergeCell ref="D29:D40"/>
     <mergeCell ref="E55:E58"/>
     <mergeCell ref="F55:F58"/>
     <mergeCell ref="D44:D54"/>
@@ -2217,17 +2259,6 @@
     <mergeCell ref="F44:F49"/>
     <mergeCell ref="F50:F54"/>
     <mergeCell ref="E44:E54"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C22:C40"/>
-    <mergeCell ref="D29:D40"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
